--- a/PCB/BOM_SMD.xlsx
+++ b/PCB/BOM_SMD.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Dev\Github\BatteryTester\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9CE68E-20E7-4C8E-8F2D-5D278650712F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B53124-D53D-4776-90B7-B660D081A7A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId1"/>
     <sheet name="BOM" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId3"/>
+    <pivotCache cacheId="15" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="79">
   <si>
     <t>RefDes</t>
   </si>
@@ -89,9 +89,6 @@
     <t>LED1</t>
   </si>
   <si>
-    <t>LEDCHIP-LED0805</t>
-  </si>
-  <si>
     <t>Blue</t>
   </si>
   <si>
@@ -131,18 +128,12 @@
     <t>RES_1206</t>
   </si>
   <si>
-    <t>3.3k</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
     <t>R3</t>
   </si>
   <si>
-    <t>10K</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
@@ -155,27 +146,15 @@
     <t>R11</t>
   </si>
   <si>
-    <t>10k</t>
-  </si>
-  <si>
     <t>R12</t>
   </si>
   <si>
-    <t>4k</t>
-  </si>
-  <si>
     <t>R13</t>
   </si>
   <si>
-    <t>2k</t>
-  </si>
-  <si>
     <t>R14</t>
   </si>
   <si>
-    <t>12k</t>
-  </si>
-  <si>
     <t>R15</t>
   </si>
   <si>
@@ -185,9 +164,6 @@
     <t>R17</t>
   </si>
   <si>
-    <t>15k</t>
-  </si>
-  <si>
     <t>R18</t>
   </si>
   <si>
@@ -209,27 +185,6 @@
     <t>R26</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>SWITCH-MOMENTARY-2-SMD-1101NE</t>
-  </si>
-  <si>
-    <t>Reset</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>Flash</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>ESP32-WROOM</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -270,6 +225,42 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>3.3kΩ</t>
+  </si>
+  <si>
+    <t>10KΩ</t>
+  </si>
+  <si>
+    <t>470Ω</t>
+  </si>
+  <si>
+    <t>10kΩ</t>
+  </si>
+  <si>
+    <t>4kΩ</t>
+  </si>
+  <si>
+    <t>2kΩ</t>
+  </si>
+  <si>
+    <t>12kΩ</t>
+  </si>
+  <si>
+    <t>15kΩ</t>
+  </si>
+  <si>
+    <t>150Ω</t>
+  </si>
+  <si>
+    <t>CAP_0603</t>
+  </si>
+  <si>
+    <t>CAP_1206</t>
+  </si>
+  <si>
+    <t>LED_0805</t>
   </si>
 </sst>
 </file>
@@ -753,7 +744,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -763,6 +754,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -823,13 +817,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Graham Ross" refreshedDate="44230.342171180557" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="41" xr:uid="{18E21712-2489-4D75-A0C8-B9912A83FEDD}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Graham Ross" refreshedDate="44231.344660416667" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="38" xr:uid="{20D1DAD3-821B-4CF7-9C7C-E80F5E452FB7}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D42" sheet="BOM"/>
+    <worksheetSource ref="A1:D39" sheet="BOM"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="RefDes" numFmtId="0">
-      <sharedItems count="41">
+      <sharedItems count="38">
         <s v="C1"/>
         <s v="C2"/>
         <s v="C11"/>
@@ -843,7 +837,6 @@
         <s v="LED3"/>
         <s v="LED4"/>
         <s v="LED5"/>
-        <s v="Q11"/>
         <s v="R1"/>
         <s v="R2"/>
         <s v="R3"/>
@@ -864,35 +857,31 @@
         <s v="R22"/>
         <s v="R23"/>
         <s v="R26"/>
-        <s v="S1"/>
-        <s v="S2"/>
-        <s v="U1"/>
         <s v="U2"/>
         <s v="U10"/>
         <s v="U11"/>
         <s v="U12"/>
+        <s v="Q11"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Name" numFmtId="49">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="603" maxValue="1206" count="14">
+      <sharedItems count="12">
         <s v="CAP_POLG"/>
         <s v="CAP_POLC"/>
         <s v="CAP_0805"/>
-        <n v="603"/>
-        <n v="1206"/>
-        <s v="LEDCHIP-LED0805"/>
-        <s v="IRF7413"/>
+        <s v="CAP_0603"/>
+        <s v="CAP_1206"/>
+        <s v="LED_0805"/>
         <s v="RES_1206"/>
-        <s v="SWITCH-MOMENTARY-2-SMD-1101NE"/>
-        <s v="ESP32-WROOM"/>
         <s v="LT1117CST-3.3"/>
         <s v="FS8205S"/>
         <s v="MCP9808"/>
         <s v="TP4056"/>
+        <s v="IRF7413"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Value" numFmtId="49">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="150" maxValue="470" count="21">
+      <sharedItems containsBlank="1" count="18">
         <s v="220uf"/>
         <s v="10uf"/>
         <s v="1uF"/>
@@ -902,18 +891,15 @@
         <s v="Green"/>
         <s v="Red"/>
         <s v="White"/>
+        <s v="3.3kΩ"/>
+        <s v="10KΩ"/>
+        <s v="470Ω"/>
+        <s v="4kΩ"/>
+        <s v="2kΩ"/>
+        <s v="12kΩ"/>
+        <s v="15kΩ"/>
+        <s v="150Ω"/>
         <m/>
-        <s v="3.3k"/>
-        <s v="10K"/>
-        <n v="470"/>
-        <s v="4k"/>
-        <s v="2k"/>
-        <s v="12k"/>
-        <s v="15k"/>
-        <n v="150"/>
-        <s v="Reset"/>
-        <s v="Flash"/>
-        <s v="ESP32-WROOM"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Quantity" numFmtId="0">
@@ -929,7 +915,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="41">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="38">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -1012,179 +998,161 @@
     <x v="13"/>
     <x v="6"/>
     <x v="9"/>
-    <n v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="14"/>
-    <x v="7"/>
+    <x v="6"/>
+    <x v="9"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="6"/>
     <x v="10"/>
     <n v="1"/>
   </r>
   <r>
-    <x v="15"/>
-    <x v="7"/>
+    <x v="16"/>
+    <x v="6"/>
     <x v="10"/>
     <n v="1"/>
   </r>
   <r>
-    <x v="16"/>
-    <x v="7"/>
+    <x v="17"/>
+    <x v="6"/>
     <x v="11"/>
     <n v="1"/>
   </r>
   <r>
-    <x v="17"/>
-    <x v="7"/>
+    <x v="18"/>
+    <x v="6"/>
     <x v="11"/>
     <n v="1"/>
   </r>
   <r>
-    <x v="18"/>
-    <x v="7"/>
+    <x v="19"/>
+    <x v="6"/>
+    <x v="10"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="6"/>
     <x v="12"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <x v="7"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="6"/>
+    <x v="13"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="6"/>
+    <x v="14"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="6"/>
     <x v="12"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="7"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="6"/>
+    <x v="10"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="6"/>
+    <x v="15"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="6"/>
     <x v="11"/>
     <n v="2"/>
   </r>
   <r>
-    <x v="21"/>
-    <x v="7"/>
+    <x v="27"/>
+    <x v="6"/>
+    <x v="11"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="6"/>
+    <x v="10"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="6"/>
+    <x v="15"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="6"/>
+    <x v="11"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="6"/>
     <x v="13"/>
     <n v="2"/>
   </r>
   <r>
-    <x v="22"/>
-    <x v="7"/>
-    <x v="14"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <x v="7"/>
-    <x v="15"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <x v="7"/>
-    <x v="13"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <x v="7"/>
-    <x v="11"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <x v="7"/>
+    <x v="32"/>
+    <x v="6"/>
     <x v="16"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <x v="7"/>
-    <x v="12"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <x v="7"/>
-    <x v="12"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <x v="7"/>
-    <x v="11"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <x v="7"/>
-    <x v="16"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="7"/>
-    <x v="12"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <x v="7"/>
-    <x v="14"/>
     <n v="2"/>
   </r>
   <r>
     <x v="33"/>
     <x v="7"/>
     <x v="17"/>
-    <n v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="34"/>
     <x v="8"/>
-    <x v="18"/>
-    <n v="1"/>
+    <x v="17"/>
+    <n v="2"/>
   </r>
   <r>
     <x v="35"/>
-    <x v="8"/>
-    <x v="19"/>
-    <n v="1"/>
+    <x v="9"/>
+    <x v="17"/>
+    <n v="2"/>
   </r>
   <r>
     <x v="36"/>
-    <x v="9"/>
-    <x v="20"/>
-    <n v="1"/>
+    <x v="10"/>
+    <x v="17"/>
+    <n v="2"/>
   </r>
   <r>
     <x v="37"/>
-    <x v="10"/>
-    <x v="9"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="38"/>
     <x v="11"/>
-    <x v="9"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <x v="12"/>
-    <x v="9"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <x v="13"/>
-    <x v="9"/>
+    <x v="17"/>
     <n v="2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B1E973B-338A-4784-8CB6-70B675380E79}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62222B4B-2A6D-47F5-A81F-65B877000205}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B83" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
-    <pivotField showAll="0">
-      <items count="42">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="39">
         <item x="0"/>
         <item x="2"/>
         <item x="3"/>
@@ -1198,8 +1166,9 @@
         <item x="10"/>
         <item x="11"/>
         <item x="12"/>
+        <item x="37"/>
         <item x="13"/>
-        <item x="14"/>
+        <item x="19"/>
         <item x="20"/>
         <item x="21"/>
         <item x="22"/>
@@ -1208,219 +1177,307 @@
         <item x="25"/>
         <item x="26"/>
         <item x="27"/>
+        <item x="14"/>
         <item x="28"/>
-        <item x="15"/>
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
-        <item x="33"/>
+        <item x="15"/>
         <item x="16"/>
         <item x="17"/>
         <item x="18"/>
-        <item x="19"/>
         <item x="34"/>
         <item x="35"/>
         <item x="36"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="37"/>
+        <item x="33"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="15">
+      <items count="13">
         <item x="3"/>
+        <item x="2"/>
         <item x="4"/>
-        <item x="2"/>
         <item x="1"/>
         <item x="0"/>
+        <item x="8"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item x="7"/>
         <item x="9"/>
-        <item x="11"/>
         <item x="6"/>
-        <item x="5"/>
         <item x="10"/>
-        <item x="12"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="13"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="22">
-        <item x="17"/>
-        <item x="12"/>
+      <items count="19">
         <item x="3"/>
-        <item x="11"/>
+        <item x="10"/>
         <item x="1"/>
+        <item x="14"/>
+        <item x="16"/>
         <item x="15"/>
-        <item x="16"/>
         <item x="2"/>
         <item x="0"/>
-        <item x="14"/>
-        <item x="10"/>
         <item x="13"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="12"/>
         <item x="4"/>
-        <item x="20"/>
-        <item x="19"/>
         <item x="6"/>
         <item x="7"/>
-        <item x="18"/>
         <item x="8"/>
         <item x="5"/>
-        <item x="9"/>
+        <item x="17"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="3">
     <field x="2"/>
     <field x="1"/>
+    <field x="0"/>
   </rowFields>
-  <rowItems count="48">
+  <rowItems count="80">
     <i>
       <x/>
     </i>
     <i r="1">
-      <x v="11"/>
+      <x/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i r="1">
-      <x v="11"/>
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="15"/>
+    </i>
+    <i r="2">
+      <x v="20"/>
+    </i>
+    <i r="2">
+      <x v="25"/>
+    </i>
+    <i r="2">
+      <x v="30"/>
+    </i>
+    <i r="2">
+      <x v="31"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i r="1">
-      <x/>
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i r="1">
-      <x v="11"/>
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="18"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="29"/>
     </i>
     <i>
       <x v="5"/>
     </i>
     <i r="1">
-      <x v="11"/>
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="21"/>
+    </i>
+    <i r="2">
+      <x v="26"/>
     </i>
     <i>
       <x v="6"/>
     </i>
     <i r="1">
-      <x v="11"/>
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
     </i>
     <i>
       <x v="7"/>
     </i>
     <i r="1">
-      <x v="2"/>
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x/>
     </i>
     <i>
       <x v="8"/>
     </i>
     <i r="1">
-      <x v="4"/>
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="17"/>
+    </i>
+    <i r="2">
+      <x v="28"/>
     </i>
     <i>
       <x v="9"/>
     </i>
     <i r="1">
-      <x v="11"/>
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="14"/>
+    </i>
+    <i r="2">
+      <x v="24"/>
     </i>
     <i>
       <x v="10"/>
     </i>
     <i r="1">
-      <x v="11"/>
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="22"/>
+    </i>
+    <i r="2">
+      <x v="23"/>
+    </i>
+    <i r="2">
+      <x v="27"/>
+    </i>
+    <i r="2">
+      <x v="32"/>
+    </i>
+    <i r="2">
+      <x v="33"/>
     </i>
     <i>
       <x v="11"/>
     </i>
     <i r="1">
-      <x v="11"/>
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="16"/>
+    </i>
+    <i r="2">
+      <x v="19"/>
     </i>
     <i>
       <x v="12"/>
     </i>
     <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="2">
       <x v="8"/>
     </i>
     <i>
       <x v="13"/>
     </i>
     <i r="1">
-      <x v="5"/>
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="10"/>
     </i>
     <i>
       <x v="14"/>
     </i>
     <i r="1">
-      <x v="12"/>
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="11"/>
     </i>
     <i>
       <x v="15"/>
     </i>
     <i r="1">
-      <x v="8"/>
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
     </i>
     <i>
       <x v="16"/>
     </i>
     <i r="1">
-      <x v="8"/>
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
     </i>
     <i>
       <x v="17"/>
     </i>
     <i r="1">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="18"/>
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="13"/>
     </i>
     <i r="1">
       <x v="8"/>
     </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
+    <i r="2">
+      <x v="37"/>
     </i>
     <i r="1">
       <x v="9"/>
     </i>
+    <i r="2">
+      <x v="35"/>
+    </i>
     <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
+      <x v="11"/>
+    </i>
+    <i r="2">
+      <x v="36"/>
     </i>
     <i t="grand">
       <x/>
@@ -1740,206 +1797,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5503CD-45AD-4212-9EA9-99C7DC4D3295}">
-  <dimension ref="A3:B51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5266F50-3936-4990-96E0-54B236A879F1}">
+  <dimension ref="A3:B83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>150</v>
+      <c r="A4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B4" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="B5" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>470</v>
+      <c r="A6" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>603</v>
-      </c>
-      <c r="B9" s="4">
-        <v>6</v>
-      </c>
-    </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>38</v>
+      <c r="A10" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B10" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>34</v>
+      <c r="A11" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B11" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
+      <c r="A12" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B12" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>1206</v>
+      <c r="A13" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B13" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>8</v>
+      <c r="A14" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>49</v>
+      <c r="A15" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="B15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>34</v>
+      <c r="A16" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>53</v>
+      <c r="A17" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="B17" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>34</v>
+      <c r="A18" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="B18" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>12</v>
+      <c r="A19" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B19" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>11</v>
+      <c r="A20" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="B20" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>47</v>
+      <c r="A23" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B23" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>34</v>
+      <c r="A24" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B24" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>35</v>
+      <c r="A25" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B25" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>34</v>
+      <c r="A26" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="B26" s="4">
         <v>2</v>
@@ -1947,7 +2004,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B27" s="4">
         <v>4</v>
@@ -1955,207 +2012,465 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>22</v>
+      <c r="A29" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B29" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>21</v>
+      <c r="A30" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B30" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="B31" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B32" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>65</v>
+      <c r="A33" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B33" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>62</v>
+      <c r="A34" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B34" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B35" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B36" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>28</v>
+      <c r="A37" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="B37" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>21</v>
+      <c r="A38" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B38" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>63</v>
+      <c r="A39" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B39" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="4">
-        <v>9</v>
-      </c>
-    </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>71</v>
+      <c r="A46" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B46" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B47" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>69</v>
+      <c r="A48" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B48" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="4">
-        <v>68</v>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B79" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B81" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B82" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B83" s="4">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2179,7 +2494,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2196,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2213,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2230,7 +2545,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2247,15 +2562,15 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1">
-        <v>603</v>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -2264,15 +2579,15 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1">
-        <v>603</v>
+      <c r="B7" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -2281,15 +2596,15 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1">
-        <v>603</v>
+      <c r="B8" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -2298,15 +2613,15 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1">
-        <v>1206</v>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
@@ -2315,7 +2630,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2323,545 +2638,494 @@
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="1">
-        <v>470</v>
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="1">
-        <v>470</v>
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="1">
-        <v>470</v>
+        <v>33</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="1">
-        <v>470</v>
+        <v>33</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="1">
-        <v>470</v>
+        <v>33</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="1">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
